--- a/Report/test case excel.xlsx
+++ b/Report/test case excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\303COM-Bullfinch\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D19648C-51CB-4737-8D00-646E5F2FB799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3C1A3-67F5-4080-ADE6-5978775F206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20820" windowHeight="21705" xr2:uid="{AB5AE471-1E01-499A-9B87-2EB04277B006}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="21600" xr2:uid="{AB5AE471-1E01-499A-9B87-2EB04277B006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="122">
   <si>
     <t>No.</t>
   </si>
@@ -42,32 +42,380 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>Observed Result</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>New Game</t>
   </si>
   <si>
     <t>Screen fade to black. Then player will be shown into Tutorial Scene</t>
   </si>
   <si>
-    <t>Screen fade to black. Player is in Tutorial Scene.</t>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Will not be shown if there is no save data detected.</t>
+  </si>
+  <si>
+    <t>Will be shown if there is save data detected</t>
+  </si>
+  <si>
+    <t>Exit Game</t>
+  </si>
+  <si>
+    <t>Exit from the game</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>View Signboard 1</t>
+  </si>
+  <si>
+    <t>View Signboard 2</t>
+  </si>
+  <si>
+    <t>View Signboard 3</t>
+  </si>
+  <si>
+    <t>View Signboard 5</t>
+  </si>
+  <si>
+    <t>View Signboard 4</t>
+  </si>
+  <si>
+    <t>View Signboard 6</t>
+  </si>
+  <si>
+    <t>View Signboard 7</t>
+  </si>
+  <si>
+    <t>When user stand in front of the signboard and press Left Mouse Button, a dialog user interface pop out with preset dialog in it. User are also able to go through all the message. When the message end, the dialog user interface will close.</t>
+  </si>
+  <si>
+    <t>When user stand in front of the signboard and press Left Mouse Button, a dialog user interface pop out with preset dialog in it. User are also able to go through all the message. When the message end, the dialog user interface will close. The door will open for player to progress to next map.</t>
+  </si>
+  <si>
+    <t>Exit the area</t>
+  </si>
+  <si>
+    <t>Talk to the Girl NPC in the stall</t>
+  </si>
+  <si>
+    <t>View Signboard</t>
+  </si>
+  <si>
+    <t>Interact with the fallen tree</t>
+  </si>
+  <si>
+    <t>Interact with the Old Lady NPC</t>
+  </si>
+  <si>
+    <t>Interact with the Stone monument</t>
+  </si>
+  <si>
+    <t>Interact with the Stone marker</t>
+  </si>
+  <si>
+    <t>Show the message "Welcome to Llyn Village" when player interact with it</t>
+  </si>
+  <si>
+    <t>Show dialogue message when player interact with it</t>
+  </si>
+  <si>
+    <t>Show dialogue message and unlocking a door beside the NPC when player interact with it</t>
+  </si>
+  <si>
+    <t>Show some dialogue message when player interact with it.</t>
+  </si>
+  <si>
+    <t>Show the message "Direction to Aeston Town" when player interact with it.</t>
+  </si>
+  <si>
+    <t>Nothing happened, because the script does not work in Unity Editor. But it work properly when compiled.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Talk to the Girl NPC</t>
+  </si>
+  <si>
+    <t>Talk to the Townhall Clerk Actor NPC</t>
+  </si>
+  <si>
+    <t>Talk to the Villager Actor NPC</t>
+  </si>
+  <si>
+    <t>Talk to the Guide Book NPC</t>
+  </si>
+  <si>
+    <t>Talk to Crate 1</t>
+  </si>
+  <si>
+    <t>Talk to Crate 2</t>
+  </si>
+  <si>
+    <t>Talk to Crate 3</t>
+  </si>
+  <si>
+    <t>Talk to Crate 4</t>
+  </si>
+  <si>
+    <t>Talk to Crate 5</t>
+  </si>
+  <si>
+    <t>Talk to Crate 6</t>
+  </si>
+  <si>
+    <t>Show the preset dialogue</t>
+  </si>
+  <si>
+    <t>Show "Lodge Complain" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Check Complaint History" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Appeal complaint" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Check list of complaint" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Sent in worker" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Mark work completion" dialogue</t>
+  </si>
+  <si>
+    <t>Push Crate to incorrect switch</t>
+  </si>
+  <si>
+    <t>Push Crate to Correct switch</t>
+  </si>
+  <si>
+    <t>Switch will turn red</t>
+  </si>
+  <si>
+    <t>Switch will turn green and crate stop moving.</t>
+  </si>
+  <si>
+    <t>All the Switch turn Green</t>
+  </si>
+  <si>
+    <t>Reward Screen pop up, Exclamation mark pop up on top of Girl NPC, Girl NPC would have new dialog that will remove the fallen tree logs.</t>
+  </si>
+  <si>
+    <t>Talk to the Vince NPC</t>
+  </si>
+  <si>
+    <t>View the Signboard</t>
+  </si>
+  <si>
+    <t>Enter a battle with monster</t>
+  </si>
+  <si>
+    <t>Screen fade to black, turn into monster battle scene with specific UI</t>
+  </si>
+  <si>
+    <t>Show dialogue message and remove a bushes.</t>
+  </si>
+  <si>
+    <t>Show preset dialogue.</t>
+  </si>
+  <si>
+    <t>Talk to the Jimmy NPC</t>
+  </si>
+  <si>
+    <t>View the Signboard 1</t>
+  </si>
+  <si>
+    <t>View the Signboard 3</t>
+  </si>
+  <si>
+    <t>View the Signboard 4</t>
+  </si>
+  <si>
+    <t>View the Signboard 2</t>
+  </si>
+  <si>
+    <t>Entering the Shop</t>
+  </si>
+  <si>
+    <t>Talk to the Stan NPC</t>
+  </si>
+  <si>
+    <t>Entering the Monster Park</t>
+  </si>
+  <si>
+    <t>Talk to the Campus Guard NPC</t>
+  </si>
+  <si>
+    <t>Entering quest area</t>
+  </si>
+  <si>
+    <t>Show preset dialogue "Welcome to Aeston Town"</t>
+  </si>
+  <si>
+    <t>Show a preset dialogue.</t>
+  </si>
+  <si>
+    <t>Show preset dialogue "Shop"</t>
+  </si>
+  <si>
+    <t>Screen fade to black, then fade from black to show shop scene.</t>
+  </si>
+  <si>
+    <t>When the door is open, player can walk through the open door and the screen fade to black. Fade from black to show coutnryside scene.</t>
+  </si>
+  <si>
+    <t>Show a preset dialogue "Monster Park"</t>
+  </si>
+  <si>
+    <t>Screen fade to black, then fade from black to show MonsterParkInner scene.</t>
+  </si>
+  <si>
+    <t>Show a preset dialogue "Campus"</t>
+  </si>
+  <si>
+    <t>Show a preset dialogue, then when finished chatting, unlock a trap door on the right.</t>
+  </si>
+  <si>
+    <t>Screen fade to black, then fade from black to show quest area.</t>
+  </si>
+  <si>
+    <t>Talk to the Park Manager NPC</t>
+  </si>
+  <si>
+    <t>Show the preset dialogue and remove a blockade to allow player to access quest areas.</t>
+  </si>
+  <si>
+    <t>Leaving through another entrance</t>
+  </si>
+  <si>
+    <t>Screen fade to black, then fade from black to show the monster park section at AestonTown.</t>
+  </si>
+  <si>
+    <t>Talk to Crate 7</t>
+  </si>
+  <si>
+    <t>Talk to Crate 8</t>
+  </si>
+  <si>
+    <t>Talk to Crate 9</t>
+  </si>
+  <si>
+    <t>Talk to Crate 10</t>
+  </si>
+  <si>
+    <t>Talk to Crate 11</t>
+  </si>
+  <si>
+    <t>Talk to Crate 12</t>
+  </si>
+  <si>
+    <t>Talk to Crate 13</t>
+  </si>
+  <si>
+    <t>Talk to the Supervisor NPC</t>
+  </si>
+  <si>
+    <t>Talk to the Clerk Actor NPC</t>
+  </si>
+  <si>
+    <t>Talk to the Ticket Inspector Actor NPC</t>
+  </si>
+  <si>
+    <t>Show "Buy Ticket" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Make payment" dialogue</t>
+  </si>
+  <si>
+    <t>Show "By cash" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "By credit card" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "Check ticket availability" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "Return Ticket" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "Check ticket info" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "Deny entrance" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "Approve Entrance" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "Sell ticket" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "Print ticket" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "Show ticket availability" Dialogue</t>
+  </si>
+  <si>
+    <t>Show "Generate monthly report" Dialogue</t>
+  </si>
+  <si>
+    <t>Reward Screen pop up, Exclamation mark pop up on top of Supervisor NPC, Supervisor NPC would have new dialog that will remove the obstacle to access monster park.</t>
+  </si>
+  <si>
+    <t>Talk to Crate 14</t>
+  </si>
+  <si>
+    <t>Talk to Crate 15</t>
+  </si>
+  <si>
+    <t>Talk to Crate 16</t>
+  </si>
+  <si>
+    <t>Talk to Crate 17</t>
+  </si>
+  <si>
+    <t>Talk to Crate 18</t>
+  </si>
+  <si>
+    <t>Talk to the Visitor Actor NPC</t>
+  </si>
+  <si>
+    <t>Talk to the Security Officer Actor NPC</t>
+  </si>
+  <si>
+    <t>Talk to the Security Guard Actor NPC</t>
+  </si>
+  <si>
+    <t>Talk to the Security Admin Actor NPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,10 +429,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -93,10 +480,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,93 +820,1484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DF1279-B74A-4383-BB70-58BF860A511E}">
-  <dimension ref="B5:F44"/>
+  <dimension ref="B5:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:6" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>3</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>5</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>10</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="2:6" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>3</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="4">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="4">
+        <v>6</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="4">
+        <v>7</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
+        <v>8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="4">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="4">
+        <v>10</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4">
+        <v>11</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4">
+        <v>12</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4">
+        <v>14</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
+        <v>15</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="2:6" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4">
+        <v>16</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="4">
+        <v>17</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="4">
+        <v>18</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="4">
+        <v>19</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="2:6" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="4">
+        <v>20</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>5</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>7</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>8</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>9</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>10</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>11</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>12</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>13</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>14</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3">
+        <v>15</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <v>16</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>17</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>18</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <v>19</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>20</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <v>21</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>22</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="F12:F17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/test case excel.xlsx
+++ b/Report/test case excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\303COM-Bullfinch\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3C1A3-67F5-4080-ADE6-5978775F206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A13DC1-5486-4F93-851F-8A6ADC489B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20820" windowHeight="21600" xr2:uid="{AB5AE471-1E01-499A-9B87-2EB04277B006}"/>
+    <workbookView xWindow="3540" yWindow="0" windowWidth="20820" windowHeight="21600" activeTab="1" xr2:uid="{AB5AE471-1E01-499A-9B87-2EB04277B006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="System integration testing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="209">
   <si>
     <t>No.</t>
   </si>
@@ -400,6 +401,267 @@
   </si>
   <si>
     <t>Talk to the Security Admin Actor NPC</t>
+  </si>
+  <si>
+    <t>Talk to the Headmaster NPC</t>
+  </si>
+  <si>
+    <t>Reward Screen pop up, Exclamation mark pop up on top of Headmaster NPC, Headmaster NPC would have new dialog that will remove the obstacle to final area of the entire game.</t>
+  </si>
+  <si>
+    <t>Show the preset dialog.</t>
+  </si>
+  <si>
+    <t>Show "Apply for visit pass" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Submit required information" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Received ticket number" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Check status of request" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Verify visitor request" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Check visitor info" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Deny visitor request" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Approve visitor request" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Give reason" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Verify visitor particular" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Capture the entry time of visitor" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Capture the exit time of visitor" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Update status of visitor" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Generate a report of visitor records" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Archive the report" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Generate a contingency report" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Based on location" dialogue</t>
+  </si>
+  <si>
+    <t>Show "Based on date" dialogue</t>
+  </si>
+  <si>
+    <t>Talk with the Shopkeeper NPC</t>
+  </si>
+  <si>
+    <t>Buy an Item</t>
+  </si>
+  <si>
+    <t>Sell an Item</t>
+  </si>
+  <si>
+    <t>Show a shop user interface when the dialog ends.</t>
+  </si>
+  <si>
+    <t>The gold in player inventory decrease proportion to the item price. Then the item is added to the player inventory.</t>
+  </si>
+  <si>
+    <t>The gold in player inventory increase proportion to the item price. Then the item is remove from the player inventory.</t>
+  </si>
+  <si>
+    <t>Pickup item 1 on the floor.</t>
+  </si>
+  <si>
+    <t>Pickup item 2 on the floor.</t>
+  </si>
+  <si>
+    <t>Pickup item 3 on the floor.</t>
+  </si>
+  <si>
+    <t>Pickup item 4 on the floor.</t>
+  </si>
+  <si>
+    <t>Trigger a normal battle.</t>
+  </si>
+  <si>
+    <t>Trigger a boss battle.</t>
+  </si>
+  <si>
+    <t>Item remove from the floor and added to player inventory.</t>
+  </si>
+  <si>
+    <t>Screen fade to black and then fade from black to show battle UI.</t>
+  </si>
+  <si>
+    <t>Screen fade to black and then fade from black to show battle UI once entered boss area.</t>
+  </si>
+  <si>
+    <t>Click on "Load to Last Save" button</t>
+  </si>
+  <si>
+    <t>Click on "Quit to Main Menu" button</t>
+  </si>
+  <si>
+    <t>If save file is found, it will load back to previous save state. Else it just does not work.</t>
+  </si>
+  <si>
+    <t>Back to main menu</t>
+  </si>
+  <si>
+    <t>Press "Magic" button</t>
+  </si>
+  <si>
+    <t>Press "Item" button</t>
+  </si>
+  <si>
+    <t>Press "Flee" button</t>
+  </si>
+  <si>
+    <t>Press "Attack" button</t>
+  </si>
+  <si>
+    <t>Show "choose enemy" interface</t>
+  </si>
+  <si>
+    <t>Show "choose magic" interface</t>
+  </si>
+  <si>
+    <t>Show "item menu" interface</t>
+  </si>
+  <si>
+    <t>If successful flee, screen will fade to black and leave the battle scene. Else, display a message on screen "could not escape…"</t>
+  </si>
+  <si>
+    <t>Use item in battle</t>
+  </si>
+  <si>
+    <t>Update user interface reflect to the item used. Then skip the current player turn.</t>
+  </si>
+  <si>
+    <t>Choose enemy</t>
+  </si>
+  <si>
+    <t>Deal damage to enemy. A particle effect system is triggered on character that attacked,</t>
+  </si>
+  <si>
+    <t>Choose magic</t>
+  </si>
+  <si>
+    <t>Press Right Mouse Button</t>
+  </si>
+  <si>
+    <t>Show the in-game menu interface</t>
+  </si>
+  <si>
+    <t>Show the "item menu" interface</t>
+  </si>
+  <si>
+    <t>Press "Stats" button</t>
+  </si>
+  <si>
+    <t>Show the "character status" interface</t>
+  </si>
+  <si>
+    <t>Press "Save Game" button</t>
+  </si>
+  <si>
+    <t>Save the game</t>
+  </si>
+  <si>
+    <t>Press "Close Menu" button</t>
+  </si>
+  <si>
+    <t>Press "Quit Game" button</t>
+  </si>
+  <si>
+    <t>Close the in-game menu interface</t>
+  </si>
+  <si>
+    <t>Exit the game</t>
+  </si>
+  <si>
+    <t>Click on equipment in item menu interface</t>
+  </si>
+  <si>
+    <t>Show "Equip" button</t>
+  </si>
+  <si>
+    <t>Click on Consumable in item menu interface</t>
+  </si>
+  <si>
+    <t>Show "Use" button</t>
+  </si>
+  <si>
+    <t>Click on "Equip" button</t>
+  </si>
+  <si>
+    <t>Show "Character name" button</t>
+  </si>
+  <si>
+    <t>Click on "Use" button</t>
+  </si>
+  <si>
+    <t>Click on "Character name" after "Equip" button</t>
+  </si>
+  <si>
+    <t>Update character status as the item describe and reduce the item quantity.</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>From (Scene 1)</t>
+  </si>
+  <si>
+    <t>To (Scene 2)</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>MainMenu</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Countryside</t>
+  </si>
+  <si>
+    <t>Quest - Road Block Removal System</t>
+  </si>
+  <si>
+    <t>RoadToAestonTown</t>
+  </si>
+  <si>
+    <t>AestonTown</t>
+  </si>
+  <si>
+    <t>Quest - Visitor Tracking System</t>
+  </si>
+  <si>
+    <t>MonsterParkInner</t>
+  </si>
+  <si>
+    <t>Quest - Park Ticketing System</t>
+  </si>
+  <si>
+    <t>Screen fade to black, then fade from black, load into new map.</t>
   </si>
 </sst>
 </file>
@@ -480,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -505,6 +767,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DF1279-B74A-4383-BB70-58BF860A511E}">
   <dimension ref="B5:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:XFD131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,275 +2263,927 @@
       </c>
     </row>
     <row r="89" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>1</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D89" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="D90" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>3</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="D91" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="D92" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>5</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D93" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>6</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="D94" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="D95" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>8</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="3">
+      <c r="D96" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="4">
         <v>9</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="3">
+      <c r="D97" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="4">
         <v>10</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="3">
+      <c r="D98" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="4">
         <v>11</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="3">
+      <c r="D99" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="4">
         <v>12</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="3">
+      <c r="D100" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="4">
         <v>13</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="3">
+      <c r="D101" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="4">
         <v>14</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="3">
+      <c r="D102" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="4">
         <v>15</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="3">
+      <c r="D103" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
         <v>16</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="3">
+      <c r="D104" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="4">
         <v>17</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="3">
+      <c r="D105" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="4">
         <v>18</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="3">
+      <c r="D106" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="4">
         <v>19</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="3">
+      <c r="D107" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="2:6" s="3" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="4">
         <v>20</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="3">
+      <c r="D108" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="2:6" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="4">
         <v>21</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="3">
+      <c r="D109" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="2:6" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="4">
         <v>22</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="3">
+      <c r="D110" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="3">
+      <c r="C111" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="3">
+      <c r="C112" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="3">
+      <c r="C113" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="2:6" s="3" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="2:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C114" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="4">
+        <v>1</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="2:6" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="4">
+        <v>2</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="2:6" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="4">
+        <v>3</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="4">
+        <v>1</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="4">
+        <v>2</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="4">
+        <v>3</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="4">
+        <v>4</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="4">
+        <v>5</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="2:6" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="4">
+        <v>6</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="4">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="2:6" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="4">
+        <v>2</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="4">
+        <v>1</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="4">
+        <v>2</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="4">
+        <v>3</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="2:6" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="4">
+        <v>4</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="4">
+        <v>5</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="4">
+        <v>6</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="4">
+        <v>7</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="4">
+        <v>1</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="4">
+        <v>2</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="4">
+        <v>3</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="4">
+        <v>4</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="4">
+        <v>5</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="4">
+        <v>6</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="2:6" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="4">
+        <v>7</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="2:6" s="3" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="4">
+        <v>8</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="4">
+        <v>9</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="4">
+        <v>10</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="2:6" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="4">
+        <v>11</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="2:6" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2300,4 +3220,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4D5254-B11E-479E-8FA5-F50E65097FF6}">
+  <dimension ref="B5:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D7:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report/test case excel.xlsx
+++ b/Report/test case excel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\303COM-Bullfinch\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A13DC1-5486-4F93-851F-8A6ADC489B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802384F-ABB2-4560-8D17-4F90DD9BA798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="0" windowWidth="20820" windowHeight="21600" activeTab="1" xr2:uid="{AB5AE471-1E01-499A-9B87-2EB04277B006}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14415" windowHeight="16305" activeTab="2" xr2:uid="{AB5AE471-1E01-499A-9B87-2EB04277B006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="System integration testing" sheetId="2" r:id="rId2"/>
+    <sheet name="Abbreviations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="239">
   <si>
     <t>No.</t>
   </si>
@@ -662,13 +663,103 @@
   </si>
   <si>
     <t>Screen fade to black, then fade from black, load into new map.</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>GDD</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>LMS</t>
+  </si>
+  <si>
+    <t>MOOC</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>LMB</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Role Playing Game</t>
+  </si>
+  <si>
+    <t>Information, Communication and Technology</t>
+  </si>
+  <si>
+    <t>"CO" corona, "VI" virus, "D" disease, "19" 2019</t>
+  </si>
+  <si>
+    <t>Unified Modeling Language</t>
+  </si>
+  <si>
+    <t>Game Design Document</t>
+  </si>
+  <si>
+    <t>Self-determination Theory</t>
+  </si>
+  <si>
+    <t>Learning Management System</t>
+  </si>
+  <si>
+    <t>Massive Open Online Courses</t>
+  </si>
+  <si>
+    <t>C-sharp Programming Language</t>
+  </si>
+  <si>
+    <t>Specific, Measurable, Attainable, Relevant, Time-Bound</t>
+  </si>
+  <si>
+    <t>Non-Playable Character</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Left Mouse Button</t>
+  </si>
+  <si>
+    <t>Right Mouse Button</t>
+  </si>
+  <si>
+    <t>HyperText Markup Language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +772,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -742,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -769,11 +866,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3226,7 +3326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4D5254-B11E-479E-8FA5-F50E65097FF6}">
   <dimension ref="B5:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:E18"/>
     </sheetView>
   </sheetViews>
@@ -3242,17 +3342,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -3261,9 +3361,9 @@
       <c r="C6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -3272,7 +3372,7 @@
       <c r="C7" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>208</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3287,7 +3387,7 @@
       <c r="C8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3400,7 @@
       <c r="C9" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
@@ -3313,7 +3413,7 @@
       <c r="C10" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
@@ -3326,7 +3426,7 @@
       <c r="C11" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
@@ -3339,7 +3439,7 @@
       <c r="C12" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
@@ -3352,7 +3452,7 @@
       <c r="C13" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3365,7 +3465,7 @@
       <c r="C14" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
@@ -3378,7 +3478,7 @@
       <c r="C15" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
@@ -3391,7 +3491,7 @@
       <c r="C16" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
@@ -3404,7 +3504,7 @@
       <c r="C17" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
@@ -3417,7 +3517,7 @@
       <c r="C18" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
@@ -3458,4 +3558,171 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDDF424-2AE0-4AAE-AA60-E2E7EEC843E0}">
+  <dimension ref="B3:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C17">
+    <sortCondition ref="B3:B17"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>